--- a/all_product_duplicate_check.xlsx
+++ b/all_product_duplicate_check.xlsx
@@ -9,9 +9,6 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!#REF!</definedName>
-  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
@@ -367,8 +364,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1041" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1047" sqref="B1047"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
